--- a/cell_masterdoc.xlsx
+++ b/cell_masterdoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle\Documents\GitHub\Nidorina\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0CC0DD-AB42-4591-8D62-1EA6434E11C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD40C1A-5067-4055-AD0F-62792F9DF63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3714,7 +3714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3759,13 +3759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4106,7 +4100,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U9" sqref="U9"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4243,8 +4237,8 @@
         <v>703.33333333333337</v>
       </c>
       <c r="S2">
-        <f>R2/Q2*100</f>
-        <v>897.872340425532</v>
+        <f>Q2/R2*100</f>
+        <v>11.137440758293838</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -4298,7 +4292,7 @@
         <v>956.33333333333337</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P2:P21" si="4">N3/O3*100</f>
+        <f>N3/O3*100</f>
         <v>19.391193214825144</v>
       </c>
       <c r="Q3">
@@ -4308,8 +4302,8 @@
         <v>1403</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S38" si="5">R3/Q3*100</f>
-        <v>22152.63157894737</v>
+        <f t="shared" ref="S3:S38" si="4">Q3/R3*100</f>
+        <v>0.45141363744357327</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -4363,7 +4357,7 @@
         <v>1095.5999999999999</v>
       </c>
       <c r="P4">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P3:P21" si="5">N4/O4*100</f>
         <v>15.334063526834612</v>
       </c>
       <c r="Q4">
@@ -4373,8 +4367,8 @@
         <v>554</v>
       </c>
       <c r="S4">
-        <f t="shared" si="5"/>
-        <v>852.30769230769226</v>
+        <f t="shared" si="4"/>
+        <v>11.732851985559567</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -4478,7 +4472,7 @@
         <v>1254.25</v>
       </c>
       <c r="P6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.048833964520631</v>
       </c>
       <c r="Q6">
@@ -4488,8 +4482,8 @@
         <v>1415.4</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
-        <v>1705.3012048192772</v>
+        <f t="shared" si="4"/>
+        <v>5.8640666949272289</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -4543,7 +4537,7 @@
         <v>1345.5</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.507989594946116</v>
       </c>
       <c r="Q7">
@@ -4553,8 +4547,8 @@
         <v>754</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
-        <v>654.22993492407807</v>
+        <f t="shared" si="4"/>
+        <v>15.285145888594165</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -4608,7 +4602,7 @@
         <v>1508.75</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.381110190555095</v>
       </c>
       <c r="Q8" s="21" t="s">
@@ -4670,7 +4664,7 @@
         <v>894</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.693512304250557</v>
       </c>
       <c r="Q9">
@@ -4680,8 +4674,8 @@
         <v>1546.25</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
-        <v>1241.9678714859438</v>
+        <f t="shared" si="4"/>
+        <v>8.0517380759902988</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -4735,7 +4729,7 @@
         <v>1105.4000000000001</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.762438936131716</v>
       </c>
       <c r="Q10">
@@ -4745,8 +4739,8 @@
         <v>1656.25</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
-        <v>1314.484126984127</v>
+        <f t="shared" si="4"/>
+        <v>7.6075471698113208</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -4800,7 +4794,7 @@
         <v>1176</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.687074829931973</v>
       </c>
       <c r="Q11">
@@ -4810,8 +4804,8 @@
         <v>1800</v>
       </c>
       <c r="S11">
-        <f t="shared" si="5"/>
-        <v>1384.6153846153848</v>
+        <f t="shared" si="4"/>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -4865,7 +4859,7 @@
         <v>1350.3333333333333</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2577141446556404</v>
       </c>
       <c r="Q12" s="21" t="s">
@@ -4927,7 +4921,7 @@
         <v>1164.8333333333333</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.57518958363142</v>
       </c>
       <c r="Q13" s="21" t="s">
@@ -4989,7 +4983,7 @@
         <v>1099.75</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.572630143214369</v>
       </c>
       <c r="Q14">
@@ -4999,8 +4993,8 @@
         <v>469.33333333333331</v>
       </c>
       <c r="S14">
-        <f t="shared" si="5"/>
-        <v>594.09282700421932</v>
+        <f t="shared" si="4"/>
+        <v>16.832386363636363</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -5054,7 +5048,7 @@
         <v>1097.5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.571753986332574</v>
       </c>
       <c r="Q15">
@@ -5064,8 +5058,8 @@
         <v>899.33333333333337</v>
       </c>
       <c r="S15">
-        <f t="shared" si="5"/>
-        <v>1322.5490196078433</v>
+        <f t="shared" si="4"/>
+        <v>7.5611564121571533</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -5119,7 +5113,7 @@
         <v>916.66666666666663</v>
       </c>
       <c r="P16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5636363636363644</v>
       </c>
       <c r="Q16">
@@ -5129,8 +5123,8 @@
         <v>962</v>
       </c>
       <c r="S16">
-        <f t="shared" si="5"/>
-        <v>2114.2857142857142</v>
+        <f t="shared" si="4"/>
+        <v>4.7297297297297298</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -5237,7 +5231,7 @@
         <v>1220.6666666666667</v>
       </c>
       <c r="P18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16.95794647733479</v>
       </c>
       <c r="Q18">
@@ -5247,8 +5241,8 @@
         <v>1512</v>
       </c>
       <c r="S18">
-        <f t="shared" si="5"/>
-        <v>1060.3085553997196</v>
+        <f t="shared" si="4"/>
+        <v>9.4312169312169303</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -5302,7 +5296,7 @@
         <v>1333</v>
       </c>
       <c r="P19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.372093023255813</v>
       </c>
       <c r="Q19">
@@ -5312,8 +5306,8 @@
         <v>399</v>
       </c>
       <c r="S19">
-        <f t="shared" si="5"/>
-        <v>475</v>
+        <f t="shared" si="4"/>
+        <v>21.052631578947366</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -5418,7 +5412,7 @@
         <v>1013.75</v>
       </c>
       <c r="P21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.436498150431564</v>
       </c>
       <c r="Q21" s="21" t="s">
@@ -5490,8 +5484,8 @@
         <v>758.5</v>
       </c>
       <c r="S22">
-        <f t="shared" si="5"/>
-        <v>3824.3697478991598</v>
+        <f t="shared" si="4"/>
+        <v>2.6148099318831024</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
@@ -5552,8 +5546,8 @@
         <v>417</v>
       </c>
       <c r="S23">
-        <f t="shared" si="5"/>
-        <v>1166.4335664335665</v>
+        <f t="shared" si="4"/>
+        <v>8.5731414868105507</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
@@ -5617,8 +5611,8 @@
         <v>467</v>
       </c>
       <c r="S24">
-        <f t="shared" si="5"/>
-        <v>465.44850498338872</v>
+        <f t="shared" si="4"/>
+        <v>21.484653818700927</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
@@ -5682,8 +5676,8 @@
         <v>1372.8333333333333</v>
       </c>
       <c r="S25">
-        <f t="shared" si="5"/>
-        <v>2173.3509234828498</v>
+        <f t="shared" si="4"/>
+        <v>4.6011897535510498</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
@@ -5747,8 +5741,8 @@
         <v>547.33333333333337</v>
       </c>
       <c r="S26">
-        <f t="shared" si="5"/>
-        <v>907.18232044198896</v>
+        <f t="shared" si="4"/>
+        <v>11.0231425091352</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
@@ -5812,8 +5806,8 @@
         <v>1623.1666666666667</v>
       </c>
       <c r="S27">
-        <f t="shared" si="5"/>
-        <v>1109.2255125284737</v>
+        <f t="shared" si="4"/>
+        <v>9.0152993120443572</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
@@ -5989,8 +5983,8 @@
         <v>3088.8</v>
       </c>
       <c r="S30">
-        <f t="shared" si="5"/>
-        <v>10800</v>
+        <f t="shared" si="4"/>
+        <v>0.92592592592592582</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
@@ -6054,8 +6048,8 @@
         <v>488</v>
       </c>
       <c r="S31">
-        <f t="shared" si="5"/>
-        <v>659.45945945945948</v>
+        <f t="shared" si="4"/>
+        <v>15.163934426229508</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
@@ -6119,8 +6113,8 @@
         <v>1237.8</v>
       </c>
       <c r="S32">
-        <f t="shared" si="5"/>
-        <v>1141.8819188191881</v>
+        <f t="shared" si="4"/>
+        <v>8.7574729358539347</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -6184,8 +6178,8 @@
         <v>1436.2</v>
       </c>
       <c r="S33">
-        <f t="shared" si="5"/>
-        <v>903.27044025157227</v>
+        <f t="shared" si="4"/>
+        <v>11.070881492828297</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -6373,8 +6367,8 @@
         <v>1247</v>
       </c>
       <c r="S36">
-        <f t="shared" si="5"/>
-        <v>720.80924855491332</v>
+        <f t="shared" si="4"/>
+        <v>13.873295910184444</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
@@ -6435,8 +6429,8 @@
         <v>1024</v>
       </c>
       <c r="S37">
-        <f t="shared" si="5"/>
-        <v>3657.1428571428569</v>
+        <f t="shared" si="4"/>
+        <v>2.734375</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -19292,8 +19286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5D8A4B-D7C8-4CEB-B8AD-31831789EC39}">
   <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121:D239"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19337,7 +19331,7 @@
       <c r="A4" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="34">
         <v>99</v>
       </c>
       <c r="C4" s="5">
@@ -19352,7 +19346,7 @@
       <c r="A5" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="34">
         <v>75</v>
       </c>
     </row>
@@ -19360,7 +19354,7 @@
       <c r="A6" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>60</v>
       </c>
     </row>
@@ -19368,7 +19362,7 @@
       <c r="A7" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>26</v>
       </c>
     </row>
@@ -19399,7 +19393,7 @@
       <c r="A10" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>131</v>
       </c>
       <c r="C10" s="5">
@@ -19414,7 +19408,7 @@
       <c r="A11" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="34">
         <v>114</v>
       </c>
     </row>
@@ -19422,7 +19416,7 @@
       <c r="A12" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>124</v>
       </c>
     </row>
@@ -19430,7 +19424,7 @@
       <c r="A13" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>92</v>
       </c>
     </row>
@@ -19452,7 +19446,7 @@
       <c r="A15" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>68</v>
       </c>
       <c r="C15" s="5">
@@ -19467,7 +19461,7 @@
       <c r="A16" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <v>86</v>
       </c>
     </row>
@@ -19475,7 +19469,7 @@
       <c r="A17" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <v>83</v>
       </c>
     </row>
@@ -19514,7 +19508,7 @@
       <c r="A21" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="34">
         <v>42</v>
       </c>
       <c r="C21" s="5">
@@ -19529,7 +19523,7 @@
       <c r="A22" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <v>49</v>
       </c>
     </row>
@@ -19560,7 +19554,7 @@
       <c r="A25" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="34">
         <v>67</v>
       </c>
       <c r="C25" s="5">
@@ -19575,7 +19569,7 @@
       <c r="A26" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="34">
         <v>77</v>
       </c>
     </row>
@@ -19583,7 +19577,7 @@
       <c r="A27" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="34">
         <v>101</v>
       </c>
     </row>
@@ -19591,7 +19585,7 @@
       <c r="A28" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="34">
         <v>77</v>
       </c>
     </row>
@@ -19599,7 +19593,7 @@
       <c r="A29" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="34">
         <v>98</v>
       </c>
     </row>
@@ -19607,7 +19601,7 @@
       <c r="A30" t="s">
         <v>1070</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <v>1</v>
       </c>
       <c r="C30">
@@ -19622,7 +19616,7 @@
       <c r="A31" t="s">
         <v>1071</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="33">
         <v>9</v>
       </c>
     </row>
@@ -19630,7 +19624,7 @@
       <c r="A32" t="s">
         <v>1072</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="33">
         <v>8</v>
       </c>
     </row>
@@ -19638,7 +19632,7 @@
       <c r="A33" t="s">
         <v>1073</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="33">
         <v>36</v>
       </c>
     </row>
@@ -19646,7 +19640,7 @@
       <c r="A34" t="s">
         <v>1074</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="33">
         <v>42</v>
       </c>
     </row>
@@ -19654,7 +19648,7 @@
       <c r="A35" t="s">
         <v>1075</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="33">
         <v>23</v>
       </c>
     </row>
@@ -19662,7 +19656,7 @@
       <c r="A36" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="34">
         <v>6</v>
       </c>
       <c r="C36" s="5">
@@ -19677,7 +19671,7 @@
       <c r="A37" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="34">
         <v>31</v>
       </c>
     </row>
@@ -19685,7 +19679,7 @@
       <c r="A38" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="34">
         <v>17</v>
       </c>
     </row>
@@ -19693,7 +19687,7 @@
       <c r="A39" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="34">
         <v>89</v>
       </c>
     </row>
@@ -19701,7 +19695,7 @@
       <c r="A40" t="s">
         <v>1080</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="33">
         <v>67</v>
       </c>
       <c r="C40">
@@ -19716,7 +19710,7 @@
       <c r="A41" t="s">
         <v>1081</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="33">
         <v>123</v>
       </c>
     </row>
@@ -19724,7 +19718,7 @@
       <c r="A42" t="s">
         <v>1082</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="33">
         <v>111</v>
       </c>
     </row>
@@ -19732,7 +19726,7 @@
       <c r="A43" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="34">
         <v>26</v>
       </c>
       <c r="C43" s="5">
@@ -19747,7 +19741,7 @@
       <c r="A44" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="34">
         <v>52</v>
       </c>
     </row>
@@ -19755,7 +19749,7 @@
       <c r="A45" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="34">
         <v>58</v>
       </c>
     </row>
@@ -19763,7 +19757,7 @@
       <c r="A46" t="s">
         <v>1086</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="33">
         <v>53</v>
       </c>
       <c r="C46">
@@ -19778,7 +19772,7 @@
       <c r="A47" t="s">
         <v>1087</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="33">
         <v>25</v>
       </c>
     </row>
@@ -19786,7 +19780,7 @@
       <c r="A48" t="s">
         <v>1088</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="33">
         <v>103</v>
       </c>
     </row>
@@ -19794,7 +19788,7 @@
       <c r="A49" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="34">
         <v>70</v>
       </c>
       <c r="C49" s="5">
@@ -19809,7 +19803,7 @@
       <c r="A50" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="34">
         <v>78</v>
       </c>
     </row>
@@ -19817,7 +19811,7 @@
       <c r="A51" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="34">
         <v>84</v>
       </c>
     </row>
@@ -19825,7 +19819,7 @@
       <c r="A52" t="s">
         <v>1092</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="33">
         <v>26</v>
       </c>
       <c r="C52">
@@ -19840,7 +19834,7 @@
       <c r="A53" t="s">
         <v>1093</v>
       </c>
-      <c r="B53" s="34">
+      <c r="B53" s="33">
         <v>11</v>
       </c>
     </row>
@@ -19848,7 +19842,7 @@
       <c r="A54" t="s">
         <v>1094</v>
       </c>
-      <c r="B54" s="34">
+      <c r="B54" s="33">
         <v>75</v>
       </c>
     </row>
@@ -19856,7 +19850,7 @@
       <c r="A55" t="s">
         <v>1095</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="33">
         <v>18</v>
       </c>
     </row>
@@ -19864,7 +19858,7 @@
       <c r="A56" t="s">
         <v>1096</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="33">
         <v>13</v>
       </c>
     </row>
@@ -19872,7 +19866,7 @@
       <c r="A57" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="34">
         <v>0</v>
       </c>
       <c r="C57" s="5">
@@ -19887,7 +19881,7 @@
       <c r="A58" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="34">
         <v>148</v>
       </c>
     </row>
@@ -19895,7 +19889,7 @@
       <c r="A59" t="s">
         <v>1099</v>
       </c>
-      <c r="B59" s="34">
+      <c r="B59" s="33">
         <v>91</v>
       </c>
       <c r="C59">
@@ -19910,7 +19904,7 @@
       <c r="A60" t="s">
         <v>1100</v>
       </c>
-      <c r="B60" s="34">
+      <c r="B60" s="33">
         <v>57</v>
       </c>
     </row>
@@ -19918,7 +19912,7 @@
       <c r="A61" t="s">
         <v>1101</v>
       </c>
-      <c r="B61" s="34">
+      <c r="B61" s="33">
         <v>59</v>
       </c>
     </row>
@@ -19926,7 +19920,7 @@
       <c r="A62" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="34">
         <v>83</v>
       </c>
       <c r="C62" s="5">
@@ -19940,7 +19934,7 @@
       <c r="A63" t="s">
         <v>1103</v>
       </c>
-      <c r="B63" s="34">
+      <c r="B63" s="33">
         <v>28</v>
       </c>
       <c r="C63">
@@ -19954,7 +19948,7 @@
       <c r="A64" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="34">
         <v>5</v>
       </c>
       <c r="C64" s="5">
@@ -19969,7 +19963,7 @@
       <c r="A65" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="34">
         <v>14</v>
       </c>
     </row>
@@ -19977,7 +19971,7 @@
       <c r="A66" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="B66" s="36">
+      <c r="B66" s="34">
         <v>9</v>
       </c>
     </row>
@@ -19985,7 +19979,7 @@
       <c r="A67" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="34">
         <v>3</v>
       </c>
     </row>
@@ -19993,7 +19987,7 @@
       <c r="A68" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="34">
         <v>4</v>
       </c>
     </row>
@@ -20001,7 +19995,7 @@
       <c r="A69" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="B69" s="36">
+      <c r="B69" s="34">
         <v>3</v>
       </c>
     </row>
@@ -20009,7 +20003,7 @@
       <c r="A70" t="s">
         <v>1110</v>
       </c>
-      <c r="B70" s="34">
+      <c r="B70" s="33">
         <v>6</v>
       </c>
       <c r="C70">
@@ -20024,7 +20018,7 @@
       <c r="A71" t="s">
         <v>1111</v>
       </c>
-      <c r="B71" s="34">
+      <c r="B71" s="33">
         <v>10</v>
       </c>
     </row>
@@ -20032,7 +20026,7 @@
       <c r="A72" t="s">
         <v>1112</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B72" s="33">
         <v>56</v>
       </c>
     </row>
@@ -20040,7 +20034,7 @@
       <c r="A73" t="s">
         <v>1113</v>
       </c>
-      <c r="B73" s="34">
+      <c r="B73" s="33">
         <v>99</v>
       </c>
     </row>
@@ -20048,7 +20042,7 @@
       <c r="A74" t="s">
         <v>1114</v>
       </c>
-      <c r="B74" s="34">
+      <c r="B74" s="33">
         <v>106</v>
       </c>
     </row>
@@ -20056,7 +20050,7 @@
       <c r="A75" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="B75" s="36">
+      <c r="B75" s="34">
         <v>116</v>
       </c>
       <c r="C75" s="5">
@@ -20071,7 +20065,7 @@
       <c r="A76" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="B76" s="36">
+      <c r="B76" s="34">
         <v>135</v>
       </c>
     </row>
@@ -20079,7 +20073,7 @@
       <c r="A77" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="B77" s="36">
+      <c r="B77" s="34">
         <v>115</v>
       </c>
     </row>
@@ -20087,7 +20081,7 @@
       <c r="A78" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="B78" s="36">
+      <c r="B78" s="34">
         <v>132</v>
       </c>
     </row>
@@ -20095,7 +20089,7 @@
       <c r="A79" t="s">
         <v>1119</v>
       </c>
-      <c r="B79" s="34">
+      <c r="B79" s="33">
         <v>89</v>
       </c>
       <c r="C79">
@@ -20110,7 +20104,7 @@
       <c r="A80" t="s">
         <v>1120</v>
       </c>
-      <c r="B80" s="34">
+      <c r="B80" s="33">
         <v>106</v>
       </c>
     </row>
@@ -20118,7 +20112,7 @@
       <c r="A81" t="s">
         <v>1121</v>
       </c>
-      <c r="B81" s="34">
+      <c r="B81" s="33">
         <v>126</v>
       </c>
     </row>
@@ -20126,7 +20120,7 @@
       <c r="A82" t="s">
         <v>1122</v>
       </c>
-      <c r="B82" s="34">
+      <c r="B82" s="33">
         <v>183</v>
       </c>
     </row>
@@ -20134,7 +20128,7 @@
       <c r="A83" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="B83" s="36">
+      <c r="B83" s="34">
         <v>45</v>
       </c>
       <c r="C83" s="5">
@@ -20149,7 +20143,7 @@
       <c r="A84" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B84" s="36">
+      <c r="B84" s="34">
         <v>103</v>
       </c>
     </row>
@@ -20157,7 +20151,7 @@
       <c r="A85" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="B85" s="36">
+      <c r="B85" s="34">
         <v>242</v>
       </c>
     </row>
@@ -20165,7 +20159,7 @@
       <c r="A86" t="s">
         <v>1126</v>
       </c>
-      <c r="B86" s="34">
+      <c r="B86" s="33">
         <v>79</v>
       </c>
       <c r="C86">
@@ -20180,7 +20174,7 @@
       <c r="A87" t="s">
         <v>1127</v>
       </c>
-      <c r="B87" s="34">
+      <c r="B87" s="33">
         <v>163</v>
       </c>
     </row>
@@ -20188,7 +20182,7 @@
       <c r="A88" t="s">
         <v>1128</v>
       </c>
-      <c r="B88" s="34">
+      <c r="B88" s="33">
         <v>145</v>
       </c>
     </row>
@@ -20196,7 +20190,7 @@
       <c r="A89" t="s">
         <v>1129</v>
       </c>
-      <c r="B89" s="34">
+      <c r="B89" s="33">
         <v>160</v>
       </c>
     </row>
@@ -20204,7 +20198,7 @@
       <c r="A90" t="s">
         <v>1130</v>
       </c>
-      <c r="B90" s="34">
+      <c r="B90" s="33">
         <v>166</v>
       </c>
     </row>
@@ -20212,7 +20206,7 @@
       <c r="A91" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="B91" s="36">
+      <c r="B91" s="34">
         <v>18</v>
       </c>
       <c r="C91" s="5">
@@ -20227,7 +20221,7 @@
       <c r="A92" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="B92" s="36">
+      <c r="B92" s="34">
         <v>101</v>
       </c>
     </row>
@@ -20235,7 +20229,7 @@
       <c r="A93" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="B93" s="36">
+      <c r="B93" s="34">
         <v>28</v>
       </c>
     </row>
@@ -20243,7 +20237,7 @@
       <c r="A94" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="B94" s="36">
+      <c r="B94" s="34">
         <v>80</v>
       </c>
     </row>
@@ -20251,7 +20245,7 @@
       <c r="A95" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="B95" s="36">
+      <c r="B95" s="34">
         <v>55</v>
       </c>
     </row>
@@ -20259,7 +20253,7 @@
       <c r="A96" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="B96" s="36">
+      <c r="B96" s="34">
         <v>97</v>
       </c>
     </row>
@@ -20267,7 +20261,7 @@
       <c r="A97" t="s">
         <v>1137</v>
       </c>
-      <c r="B97" s="34">
+      <c r="B97" s="33">
         <v>146</v>
       </c>
       <c r="C97">
@@ -20282,7 +20276,7 @@
       <c r="A98" t="s">
         <v>1138</v>
       </c>
-      <c r="B98" s="34">
+      <c r="B98" s="33">
         <v>177</v>
       </c>
     </row>
@@ -20290,7 +20284,7 @@
       <c r="A99" t="s">
         <v>1139</v>
       </c>
-      <c r="B99" s="34">
+      <c r="B99" s="33">
         <v>150</v>
       </c>
     </row>
@@ -20298,7 +20292,7 @@
       <c r="A100" t="s">
         <v>1140</v>
       </c>
-      <c r="B100" s="34">
+      <c r="B100" s="33">
         <v>120</v>
       </c>
     </row>
@@ -20306,7 +20300,7 @@
       <c r="A101" t="s">
         <v>1141</v>
       </c>
-      <c r="B101" s="34">
+      <c r="B101" s="33">
         <v>127</v>
       </c>
     </row>
@@ -20314,7 +20308,7 @@
       <c r="A102" t="s">
         <v>1142</v>
       </c>
-      <c r="B102" s="34">
+      <c r="B102" s="33">
         <v>158</v>
       </c>
     </row>
@@ -20322,7 +20316,7 @@
       <c r="A103" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="B103" s="36">
+      <c r="B103" s="34">
         <v>67</v>
       </c>
       <c r="C103" s="5">
@@ -20337,7 +20331,7 @@
       <c r="A104" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="B104" s="36">
+      <c r="B104" s="34">
         <v>64</v>
       </c>
     </row>
@@ -20345,7 +20339,7 @@
       <c r="A105" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="B105" s="36">
+      <c r="B105" s="34">
         <v>59</v>
       </c>
     </row>
@@ -20353,7 +20347,7 @@
       <c r="A106" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="B106" s="36">
+      <c r="B106" s="34">
         <v>7</v>
       </c>
     </row>
@@ -20361,7 +20355,7 @@
       <c r="A107" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="B107" s="36">
+      <c r="B107" s="34">
         <v>218</v>
       </c>
     </row>
@@ -20369,7 +20363,7 @@
       <c r="A108" t="s">
         <v>1148</v>
       </c>
-      <c r="B108" s="34">
+      <c r="B108" s="33">
         <v>114</v>
       </c>
       <c r="C108">
@@ -20384,7 +20378,7 @@
       <c r="A109" t="s">
         <v>1149</v>
       </c>
-      <c r="B109" s="34">
+      <c r="B109" s="33">
         <v>111</v>
       </c>
     </row>
@@ -20392,7 +20386,7 @@
       <c r="A110" t="s">
         <v>1150</v>
       </c>
-      <c r="B110" s="34">
+      <c r="B110" s="33">
         <v>83</v>
       </c>
     </row>
@@ -20400,7 +20394,7 @@
       <c r="A111" t="s">
         <v>1151</v>
       </c>
-      <c r="B111" s="34">
+      <c r="B111" s="33">
         <v>97</v>
       </c>
     </row>
@@ -20408,7 +20402,7 @@
       <c r="A112" t="s">
         <v>1152</v>
       </c>
-      <c r="B112" s="34">
+      <c r="B112" s="33">
         <v>137</v>
       </c>
     </row>
@@ -20416,7 +20410,7 @@
       <c r="A113" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="B113" s="36">
+      <c r="B113" s="34">
         <v>122</v>
       </c>
       <c r="C113" s="5">
@@ -20431,7 +20425,7 @@
       <c r="A114" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="B114" s="36">
+      <c r="B114" s="34">
         <v>206</v>
       </c>
     </row>
@@ -20439,7 +20433,7 @@
       <c r="A115" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="B115" s="36">
+      <c r="B115" s="34">
         <v>146</v>
       </c>
     </row>
@@ -20447,7 +20441,7 @@
       <c r="A116" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="B116" s="36">
+      <c r="B116" s="34">
         <v>128</v>
       </c>
     </row>
@@ -20455,7 +20449,7 @@
       <c r="A117" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="B117" s="36">
+      <c r="B117" s="34">
         <v>193</v>
       </c>
     </row>
@@ -20463,7 +20457,7 @@
       <c r="A118" t="s">
         <v>1158</v>
       </c>
-      <c r="B118" s="34">
+      <c r="B118" s="33">
         <v>173</v>
       </c>
       <c r="C118">
@@ -20522,7 +20516,7 @@
       <c r="A125" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="B125" s="35">
+      <c r="B125" s="34">
         <v>829</v>
       </c>
       <c r="C125" s="5">
@@ -20537,7 +20531,7 @@
       <c r="A126" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="B126" s="35">
+      <c r="B126" s="34">
         <v>632</v>
       </c>
     </row>
@@ -20545,7 +20539,7 @@
       <c r="A127" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="B127" s="35">
+      <c r="B127" s="34">
         <v>480</v>
       </c>
     </row>
@@ -20553,7 +20547,7 @@
       <c r="A128" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="B128" s="35">
+      <c r="B128" s="34">
         <v>275</v>
       </c>
     </row>
@@ -20584,7 +20578,7 @@
       <c r="A131" s="5" t="s">
         <v>1050</v>
       </c>
-      <c r="B131" s="35">
+      <c r="B131" s="34">
         <v>679</v>
       </c>
       <c r="C131" s="5">
@@ -20599,7 +20593,7 @@
       <c r="A132" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="B132" s="35">
+      <c r="B132" s="34">
         <v>910</v>
       </c>
     </row>
@@ -20607,7 +20601,7 @@
       <c r="A133" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="B133" s="35">
+      <c r="B133" s="34">
         <v>876</v>
       </c>
     </row>
@@ -20615,7 +20609,7 @@
       <c r="A134" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="B134" s="35">
+      <c r="B134" s="34">
         <v>551</v>
       </c>
     </row>
@@ -20637,7 +20631,7 @@
       <c r="A136" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="B136" s="35">
+      <c r="B136" s="34">
         <v>328</v>
       </c>
       <c r="C136" s="5">
@@ -20652,7 +20646,7 @@
       <c r="A137" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="B137" s="35">
+      <c r="B137" s="34">
         <v>762</v>
       </c>
     </row>
@@ -20660,7 +20654,7 @@
       <c r="A138" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="B138" s="35">
+      <c r="B138" s="34">
         <v>318</v>
       </c>
     </row>
@@ -20699,7 +20693,7 @@
       <c r="A142" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B142" s="35">
+      <c r="B142" s="34">
         <v>1247</v>
       </c>
       <c r="C142" s="5">
@@ -20714,7 +20708,7 @@
       <c r="A143" s="5" t="s">
         <v>1062</v>
       </c>
-      <c r="B143" s="35">
+      <c r="B143" s="34">
         <v>677</v>
       </c>
     </row>
@@ -20745,7 +20739,7 @@
       <c r="A146" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="B146" s="35">
+      <c r="B146" s="34">
         <v>351</v>
       </c>
       <c r="C146" s="5">
@@ -20760,7 +20754,7 @@
       <c r="A147" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="B147" s="35">
+      <c r="B147" s="34">
         <v>328</v>
       </c>
     </row>
@@ -20768,7 +20762,7 @@
       <c r="A148" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="B148" s="35">
+      <c r="B148" s="34">
         <v>433</v>
       </c>
     </row>
@@ -20776,7 +20770,7 @@
       <c r="A149" s="5" t="s">
         <v>1068</v>
       </c>
-      <c r="B149" s="35">
+      <c r="B149" s="34">
         <v>438</v>
       </c>
     </row>
@@ -20784,7 +20778,7 @@
       <c r="A150" s="5" t="s">
         <v>1069</v>
       </c>
-      <c r="B150" s="35">
+      <c r="B150" s="34">
         <v>445</v>
       </c>
     </row>
@@ -20847,7 +20841,7 @@
       <c r="A157" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="B157" s="35">
+      <c r="B157" s="34">
         <v>302</v>
       </c>
       <c r="C157" s="5">
@@ -20862,7 +20856,7 @@
       <c r="A158" s="5" t="s">
         <v>1077</v>
       </c>
-      <c r="B158" s="35">
+      <c r="B158" s="34">
         <v>599</v>
       </c>
     </row>
@@ -20870,7 +20864,7 @@
       <c r="A159" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="B159" s="35">
+      <c r="B159" s="34">
         <v>484</v>
       </c>
     </row>
@@ -20878,7 +20872,7 @@
       <c r="A160" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="B160" s="35">
+      <c r="B160" s="34">
         <v>283</v>
       </c>
     </row>
@@ -20917,7 +20911,7 @@
       <c r="A164" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B164" s="35">
+      <c r="B164" s="34">
         <v>452</v>
       </c>
       <c r="C164" s="5">
@@ -20932,7 +20926,7 @@
       <c r="A165" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="B165" s="35">
+      <c r="B165" s="34">
         <v>136</v>
       </c>
     </row>
@@ -20940,7 +20934,7 @@
       <c r="A166" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B166" s="35">
+      <c r="B166" s="34">
         <v>678</v>
       </c>
     </row>
@@ -20979,7 +20973,7 @@
       <c r="A170" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="B170" s="35">
+      <c r="B170" s="34">
         <v>703</v>
       </c>
       <c r="C170" s="5">
@@ -20994,7 +20988,7 @@
       <c r="A171" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="B171" s="35">
+      <c r="B171" s="34">
         <v>273</v>
       </c>
     </row>
@@ -21002,7 +20996,7 @@
       <c r="A172" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="B172" s="35">
+      <c r="B172" s="34">
         <v>383</v>
       </c>
     </row>
@@ -21057,7 +21051,7 @@
       <c r="A178" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="B178" s="35">
+      <c r="B178" s="34">
         <v>229</v>
       </c>
       <c r="C178" s="5">
@@ -21072,7 +21066,7 @@
       <c r="A179" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="B179" s="35">
+      <c r="B179" s="34">
         <v>747</v>
       </c>
     </row>
@@ -21111,7 +21105,7 @@
       <c r="A183" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="B183" s="35">
+      <c r="B183" s="34">
         <v>369</v>
       </c>
       <c r="C183" s="5">
@@ -21139,7 +21133,7 @@
       <c r="A185" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="B185" s="35">
+      <c r="B185" s="34">
         <v>853</v>
       </c>
       <c r="C185" s="5">
@@ -21154,7 +21148,7 @@
       <c r="A186" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="B186" s="35">
+      <c r="B186" s="34">
         <v>1428</v>
       </c>
     </row>
@@ -21162,7 +21156,7 @@
       <c r="A187" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="B187" s="35">
+      <c r="B187" s="34">
         <v>1346</v>
       </c>
     </row>
@@ -21170,7 +21164,7 @@
       <c r="A188" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="B188" s="35">
+      <c r="B188" s="34">
         <v>1724</v>
       </c>
     </row>
@@ -21178,7 +21172,7 @@
       <c r="A189" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B189" s="35">
+      <c r="B189" s="34">
         <v>1414</v>
       </c>
     </row>
@@ -21186,7 +21180,7 @@
       <c r="A190" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="B190" s="35">
+      <c r="B190" s="34">
         <v>1653</v>
       </c>
     </row>
@@ -21241,7 +21235,7 @@
       <c r="A196" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="B196" s="35">
+      <c r="B196" s="34">
         <v>1327</v>
       </c>
       <c r="C196" s="5">
@@ -21256,7 +21250,7 @@
       <c r="A197" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="B197" s="35">
+      <c r="B197" s="34">
         <v>1348</v>
       </c>
     </row>
@@ -21264,7 +21258,7 @@
       <c r="A198" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="B198" s="35">
+      <c r="B198" s="34">
         <v>1510</v>
       </c>
     </row>
@@ -21272,7 +21266,7 @@
       <c r="A199" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="B199" s="35">
+      <c r="B199" s="34">
         <v>2000</v>
       </c>
     </row>
@@ -21319,7 +21313,7 @@
       <c r="A204" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="B204" s="35">
+      <c r="B204" s="34">
         <v>2072</v>
       </c>
       <c r="C204" s="5">
@@ -21334,7 +21328,7 @@
       <c r="A205" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B205" s="35">
+      <c r="B205" s="34">
         <v>1358</v>
       </c>
     </row>
@@ -21342,7 +21336,7 @@
       <c r="A206" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="B206" s="35">
+      <c r="B206" s="34">
         <v>1970</v>
       </c>
     </row>
@@ -21397,7 +21391,7 @@
       <c r="A212" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="B212" s="35">
+      <c r="B212" s="34">
         <v>1525</v>
       </c>
       <c r="C212" s="5">
@@ -21412,7 +21406,7 @@
       <c r="A213" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="B213" s="35">
+      <c r="B213" s="34">
         <v>1316</v>
       </c>
     </row>
@@ -21420,7 +21414,7 @@
       <c r="A214" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="B214" s="35">
+      <c r="B214" s="34">
         <v>1280</v>
       </c>
     </row>
@@ -21428,7 +21422,7 @@
       <c r="A215" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="B215" s="35">
+      <c r="B215" s="34">
         <v>1502</v>
       </c>
     </row>
@@ -21436,7 +21430,7 @@
       <c r="A216" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="B216" s="35">
+      <c r="B216" s="34">
         <v>1352</v>
       </c>
     </row>
@@ -21444,7 +21438,7 @@
       <c r="A217" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="B217" s="35">
+      <c r="B217" s="34">
         <v>1262</v>
       </c>
     </row>
@@ -21507,7 +21501,7 @@
       <c r="A224" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="B224" s="35">
+      <c r="B224" s="34">
         <v>1453</v>
       </c>
       <c r="C224" s="5">
@@ -21522,7 +21516,7 @@
       <c r="A225" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="B225" s="35">
+      <c r="B225" s="34">
         <v>1376</v>
       </c>
     </row>
@@ -21530,7 +21524,7 @@
       <c r="A226" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="B226" s="35">
+      <c r="B226" s="34">
         <v>1326</v>
       </c>
     </row>
@@ -21538,7 +21532,7 @@
       <c r="A227" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="B227" s="35">
+      <c r="B227" s="34">
         <v>1238</v>
       </c>
     </row>
@@ -21546,7 +21540,7 @@
       <c r="A228" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="B228" s="35">
+      <c r="B228" s="34">
         <v>1684</v>
       </c>
     </row>
@@ -21601,7 +21595,7 @@
       <c r="A234" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="B234" s="35">
+      <c r="B234" s="34">
         <v>1409</v>
       </c>
       <c r="C234" s="5">
@@ -21616,7 +21610,7 @@
       <c r="A235" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="B235" s="35">
+      <c r="B235" s="34">
         <v>1394</v>
       </c>
     </row>
@@ -21624,7 +21618,7 @@
       <c r="A236" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="B236" s="35">
+      <c r="B236" s="34">
         <v>1195</v>
       </c>
     </row>
@@ -21632,7 +21626,7 @@
       <c r="A237" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="B237" s="35">
+      <c r="B237" s="34">
         <v>1606</v>
       </c>
     </row>
@@ -21640,7 +21634,7 @@
       <c r="A238" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="B238" s="35">
+      <c r="B238" s="34">
         <v>1577</v>
       </c>
     </row>
